--- a/Tabela/Copacabana/Copacabana-10.xlsx
+++ b/Tabela/Copacabana/Copacabana-10.xlsx
@@ -14,357 +14,354 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+  <si>
+    <t>Rua Dona Mariana, Botafogo</t>
+  </si>
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>pronto para morar</t>
+    <t>41 - 137 m²</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
-    <t>R$ 889.000</t>
-  </si>
-  <si>
-    <t>R$ 750.000</t>
-  </si>
-  <si>
-    <t>R$ 1.180.000</t>
-  </si>
-  <si>
-    <t>R$ 230.000</t>
-  </si>
-  <si>
-    <t>R$ 3.120.000</t>
-  </si>
-  <si>
-    <t>R$ 1.450.000</t>
-  </si>
-  <si>
-    <t>R$ 1.795.000</t>
-  </si>
-  <si>
-    <t>R$ 800.000</t>
-  </si>
-  <si>
-    <t>R$ 620.000</t>
+    <t>R$ 1.050.000</t>
+  </si>
+  <si>
+    <t>R$ 340.000</t>
+  </si>
+  <si>
+    <t>R$ 360.000</t>
   </si>
   <si>
     <t>destaque</t>
   </si>
   <si>
-    <t>R$ 843.000</t>
-  </si>
-  <si>
-    <t>R$ 1.280.000</t>
-  </si>
-  <si>
-    <t>R$ 1.725.000</t>
-  </si>
-  <si>
-    <t>R$ 425.000</t>
-  </si>
-  <si>
-    <t>R$ 420.000</t>
-  </si>
-  <si>
-    <t>R$ 890.000</t>
-  </si>
-  <si>
-    <t>R$ 839.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1 IPTU R$ 1</t>
-  </si>
-  <si>
-    <t>condomínio R$ 980 IPTU R$ 1.229</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700 IPTU R$ 1.033</t>
-  </si>
-  <si>
-    <t>condomínio R$ 760 IPTU R$ 292</t>
-  </si>
-  <si>
-    <t>"O LANÇAMENTO MAIS ESPERADO DO ANO EM COPACABANA - PARADISO"</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.600</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.106 IPTU R$ 1.200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 650 IPTU R$ 257</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>R$ 1.050.000</t>
-  </si>
-  <si>
-    <t>R$ 2.500.000</t>
-  </si>
-  <si>
-    <t>R$ 995.000</t>
-  </si>
-  <si>
-    <t>R$ 410.000</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.850 IPTU R$ 520</t>
-  </si>
-  <si>
-    <t>R$ 277.000</t>
-  </si>
-  <si>
-    <t>Garanta já o seu apartamento ou cobertura neste lançamento único em Copacabana!</t>
-  </si>
-  <si>
-    <t>A vida prática e moderna, como nas cidades mais admiradas do mundo Nova York, Paris, Tóquio, Londres ou Barcelona inspira um novo jeito de morar.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 700 IPTU R$ 1.400</t>
-  </si>
-  <si>
-    <t>condomínio R$ 900 IPTU R$ 3.043</t>
-  </si>
-  <si>
-    <t>condomínio R$ 800 IPTU R$ 2.300</t>
-  </si>
-  <si>
-    <t>Copacabana SERENO Construtora SIG, está na bucólica e especial rua Maracanaú, entre as ruas Otaviano Hudson e Assis Brasil, protegida por guaritas de segurança um oásis em plena Co...</t>
-  </si>
-  <si>
-    <t>REFORMADO! junto à Praia e Metrô. Sala com Jardim de inverno, 2 quartos, sendo 1 SUÍTE, armários embutidos, banheiro social, cozinha clara e arejada e área de serviço. MOBILIADO! A...</t>
-  </si>
-  <si>
-    <t>Privilégio Imóveis Vende: Hall grande, excelente sala, circulação ampla, suite com armários embutidos, banheiro espaçoso, 1 quarto bom, banheiro social, cozinha grande, área de ser...</t>
-  </si>
-  <si>
-    <t>SALA DE FRENTE NO COPACABANA CENTER SHOPPING, RECEPÇÃO (SALA DE ESPERA), BANHEIRO SOCIAL PRIVATIVO COM BANCADA, ESPELHO E ARMÁRIO, PISO COM TACOS DE MADEIRA, INTERFONE, PINTURA NOV...</t>
-  </si>
-  <si>
-    <t>Apartamento em excelente localização, próximo estação Metro Praça General Osorio, praia de Copacabana e todo comercio ao redor.</t>
-  </si>
-  <si>
-    <t>Excelente apartamento na Rua Tonelero em frente ao Colégio Sacré Coeur De Marie , Posição Fundos, sol da manha, 5 andar, claro e arejado. São dois (2) quartos amplos com roupeiro e...</t>
-  </si>
-  <si>
-    <t>Localizado na Avenida Atlântica, no bairro Copacabana, este apartamento à venda possui 1 quarto, sendo 1 suíte, 1 banheiro, uma cozinha e uma sala aconchegante, totalizando 59m². A...</t>
-  </si>
-  <si>
-    <t>Vendo apartamento em local de destaque do bairro de Copacabana ao lado do Metrô.</t>
-  </si>
-  <si>
-    <t>condomínio R$ 980 IPTU R$ 267</t>
-  </si>
-  <si>
-    <t>condomínio R$ 1.750 IPTU R$ 500</t>
-  </si>
-  <si>
-    <t>condomínio R$ 990 IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>condomínio R$ 830 IPTU R$ 1.590</t>
-  </si>
-  <si>
-    <t>O apartamento está localizado no bairro Copacabana com 187 metros quadrados com 3 quartos e 2 banheiro. Prédio localizado no posto 4, em área valorizada, próximo ao metrô. Estação...</t>
-  </si>
-  <si>
-    <t>condomínio R$ 450 IPTU R$ 80</t>
-  </si>
-  <si>
-    <t>Sua casa precisa ter a sua cara...</t>
-  </si>
-  <si>
-    <t>4 UNIDADES POR ANDAR! Sala e 1 dormitório, SEPARADOS, armário embutido no quarto, cozinha integrada com área de serviçoa, cabe geladeira, fogão de 4 bocas e máquina de lavar, banhe...</t>
-  </si>
-  <si>
-    <t>Rua Bolivar, Posto 4, junto a Pompeu Loureiro, 95m2 andar alto ensolarado e ventilado, indevassado.</t>
-  </si>
-  <si>
-    <t>Exclusividade! Prédio estritamente residencial, com portaria 24h, localizado no coração do bairro, juntinho ao metrô do posto 4, comércio e restaurantes, com apenas 4 por andar. O...</t>
+    <t>R$ 25.000.000</t>
+  </si>
+  <si>
+    <t>R$ 474.000</t>
+  </si>
+  <si>
+    <t>R$ 1.200.000</t>
+  </si>
+  <si>
+    <t>R$ 480.000</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
+    <t>R$ 826.000</t>
+  </si>
+  <si>
+    <t>R$ 635.000</t>
+  </si>
+  <si>
+    <t>R$ 799.000</t>
+  </si>
+  <si>
+    <t>1 - 3</t>
+  </si>
+  <si>
+    <t>R$ 940.000</t>
+  </si>
+  <si>
+    <t>R$ 320.000</t>
+  </si>
+  <si>
+    <t>R$ 636.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.000 IPTU R$ 252</t>
+  </si>
+  <si>
+    <t>condomínioR$ 580 IPTU R$ 96</t>
+  </si>
+  <si>
+    <t>condomínioR$ 400 IPTU R$ 50</t>
+  </si>
+  <si>
+    <t>R$ 2.310.000</t>
+  </si>
+  <si>
+    <t>Privilégio Imóveis vende: Prédio de 3 pavimentos onde no térreo funcionam lojas de diversos seguimentos. Localização com farto comércio e movimento. No 2º e 3º pavimentos existem 2...</t>
+  </si>
+  <si>
+    <t>R$ 550.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 815 IPTU R$ 780</t>
+  </si>
+  <si>
+    <t>condomínioR$ 820 IPTU R$ 3.043</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.095 IPTU R$ 2.770</t>
+  </si>
+  <si>
+    <t>condomínioR$ 590 IPTU R$ 40</t>
+  </si>
+  <si>
+    <t>R$ 1.500.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 400</t>
+  </si>
+  <si>
+    <t>condomínioR$ 800 IPTU R$ 290</t>
+  </si>
+  <si>
+    <t>condomínioR$ 500 IPTU R$ 1.600</t>
+  </si>
+  <si>
+    <t>condomínioR$ 612 IPTU R$ 777</t>
+  </si>
+  <si>
+    <t>R$ 380.000</t>
+  </si>
+  <si>
+    <t>R$ 1.790.000</t>
+  </si>
+  <si>
+    <t>condomínioR$ 953 IPTU R$ 2.026</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>condomínioR$ 930 IPTU R$ 345</t>
+  </si>
+  <si>
+    <t>condomínioR$ 729 IPTU R$ 2.180</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.030 IPTU R$ 220</t>
+  </si>
+  <si>
+    <t>MARAVILHOSO SALA E TRÊS QUARTOS!!!! Apartamento composto por sala ampla e arejada com iluminação natural e vista livre, três quartos amplos, claros e arejados sendo um suíte, cozin...</t>
+  </si>
+  <si>
+    <t>O apartamento no bairro Copacabana amplo, reformado, com 1 quarto e 1 banheiro, cozinha tipo americana toda montadinha</t>
+  </si>
+  <si>
+    <t>MARAVILHOSO APARTAMENTO CONJUGADO EM COPACABANA!!! Quarto amplo e arejado, cozinha cabendo fogão e banheiro com box blindex. Prédio todo gabaritado, com portaria 24 horas e circuit...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 400</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>Prédio com boa apresentação, boa garagem, apartam...</t>
-  </si>
-  <si>
-    <t>Vendo em Copacabana excelente apartamento com sala, 3 quartos com armários sendo 1 suíte, 1 banh...</t>
-  </si>
-  <si>
-    <t>Com terraço, dois quartos com armário, sendo um quando revestido em sala em dois ambientes, varanda, banheiro social, lavabo, cozinha com armário, dependências completas, escada ca...</t>
-  </si>
-  <si>
-    <t>COPACABANA/IPANEMA (POSTO 6)</t>
-  </si>
-  <si>
-    <t>Excelente apartamento, sol da manhã, composto de ótima sala em dois ambientes, 3 quartos, banheiro social, copa cozinha, área de serviço, dependências completas, vaga de garagem, P...</t>
-  </si>
-  <si>
-    <t>Rua Siqueira Campos, ótimo prédio com portaria 24hs, fundos silencioso, sala e quarto com dependência e garagem para alugar no prédio. Documentação ok.</t>
-  </si>
-  <si>
-    <t>Conjugado no coração de Copacabana! 1 quarto, banheiro, e cozinha kit, perfeito pra você morar no bairro mais charmoso do Rio e próximo a praia! Acabamento em taco de madeira, Apar...</t>
-  </si>
-  <si>
-    <t>Projeto exclusivo com apenas 10 unidades disponíveis!</t>
-  </si>
-  <si>
-    <t>Apartamento com 95m2, salão amplo em 2 ambientes, 3 quartos grandes com armár...</t>
-  </si>
-  <si>
-    <t>Rua Maracanaú, Copacabana</t>
+    <t>condomínioR$ 580 IPTU R$ 82</t>
+  </si>
+  <si>
+    <t>Cód: RFAP10022. Localizado na Rua Sá Ferreira, no bairro de Copacabana, este apartamento à venda possui 1 quarto, uma cozinha e uma sala aconchegante , banheiro social , 1 quarto e...</t>
+  </si>
+  <si>
+    <t>Próximo à estação de metrô Cantagalo. O apartamento dispõe de: Sala, 3 dormitórios, armários embutidos, banheiro social amplo, cozinha, área de serviço, quarto de empregada.</t>
+  </si>
+  <si>
+    <t>Copacabana, 3 quartos, 1 vaga de garagem, 90m2</t>
+  </si>
+  <si>
+    <t>MARAVILHOSO APARTAMENTO EM OTIMA LOCALIZAÇÃO!!! Apartamento reformado, amplo, claro e arejado, com vista para o mar e iluminação natural, todo em piso frio, composto de uma sala es...</t>
+  </si>
+  <si>
+    <t>condomínioR$ 1.200 IPTU R$ 458</t>
+  </si>
+  <si>
+    <t>Cód: NSSL00184. Sala comercial na Sabta Clara 33! Preço imbatíve! Oportunidade para investimento, proporcionado rápido payback. Coração do bairro de Copacabana, shopping vertical t...</t>
+  </si>
+  <si>
+    <t>Apartamento à venda, 80m² com 2 quartos em Copacabana -</t>
+  </si>
+  <si>
+    <t>Cód: CPAP20455. Apartamento a venda em Copacabana, 2 quartos: Quadra da praia!!! Coração do bairro!! Imóvel todo reformado, fundos, silencioso, sol da manhã. Hall de entrada, sala...</t>
+  </si>
+  <si>
+    <t>Quarto e sala totalmente reformado</t>
+  </si>
+  <si>
+    <t>condomínioR$ 550 IPTU R$ 650</t>
+  </si>
+  <si>
+    <t>condomínioR$ 2.400 IPTU R$ 6.040</t>
+  </si>
+  <si>
+    <t>Privilégio Imóveis Vende - Excelente apartamento em bom estado de conservação, sala grande, 3 ótimos dormitórios todos com armários (Sendo 1 suíte). banheiro socila, cozinha ampla,...</t>
+  </si>
+  <si>
+    <t>Cód: VEAP31263. Localizado em rua transversal, próximo ao metrô, praia e todo comércio da região - prédio com portaria 24h. - apartamento de frente e vazio - composto de boa sala e...</t>
+  </si>
+  <si>
+    <t>No coração de Copacabana, 2a quadra da praia , em um prédio super elegante, portaria com boa apresentação encontra-se um prédio comercial com qualidade. Possuí 3 elevadores que dar...</t>
+  </si>
+  <si>
+    <t>Privilégio Imóveis vende: Excelente apartamento tipo aparthotel entre o leme e Copacabana. Silencioso, arejado, com vista verde e prédios longe. Não precisa de reforma. Condomínio...</t>
+  </si>
+  <si>
+    <t>Vai lhe possibilitar todo o conforto, perto da praia, loja...</t>
+  </si>
+  <si>
+    <t>Cód: COAP20270. Av. Atlântica. Excelente apartamento frontal mar, andar alto, mobilado, finamente reformado e decorado, sol da manhã. Composto por 2 quartos sendo 1 suíte, sala de...</t>
+  </si>
+  <si>
+    <t>Rua Figueiredo Magalhães, Copacabana</t>
+  </si>
+  <si>
+    <t>AP1212 - Excelente apartamento em Copacabana, sala em 02 ambientes com piso em taco sintecado, vista para Pedra, sofá, almofadas, rack com tv, mesinha retangular, poltrona, puff, v...</t>
+  </si>
+  <si>
+    <t>89 m Área útil</t>
+  </si>
+  <si>
+    <t>Cód: VEAP31013. Localizado em rua transversal, próximo á praia, metrô e farto comércio - prédio com portaria 24h. - excelente apartamento amplo, de frente, claro e arejado - compos...</t>
   </si>
   <si>
     <t>Copacabana, Rio de Janeiro</t>
   </si>
   <si>
+    <t>Claro e arejado, silencioso</t>
+  </si>
+  <si>
+    <t>Quarto e sala 39M, super silencioso, cozinha kit, banheiro com tanque, armários embutidos. Todo em piso frio. próximo do comercio, da praia e do metro. Agende já sua visita e venha...</t>
+  </si>
+  <si>
+    <t>Localizado na quadra da praia de Copacabana, ao lado do Copacabana Palace. Excelente apartamento de 230m², reformado e finamente decorado. Composto por sala em 2 ambientes, 4 quart...</t>
+  </si>
+  <si>
     <t>Rua Barata Ribeiro, Copacabana</t>
   </si>
   <si>
+    <t>Avenida Prado Júnior, Copacabana</t>
+  </si>
+  <si>
+    <t>414 m²</t>
+  </si>
+  <si>
+    <t>Rua Sá Ferreira, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Pompeu Loureiro, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Santa Clara, Copacabana</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>Excelente ponto de Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Barão de Ipanema, Copacabana</t>
+  </si>
+  <si>
+    <t>Rua Constante Ramos, Copacabana</t>
+  </si>
+  <si>
+    <t>Avenida Princesa Isabel, Copacabana</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Rua Belfort Roxo, Copacabana</t>
+  </si>
+  <si>
+    <t>30 m²</t>
+  </si>
+  <si>
+    <t>Avenida Atlântica, Copacabana</t>
+  </si>
+  <si>
+    <t>60 m²</t>
+  </si>
+  <si>
+    <t>101 m²</t>
+  </si>
+  <si>
+    <t>3 Dorms</t>
+  </si>
+  <si>
+    <t>53 m²</t>
+  </si>
+  <si>
+    <t>Rua Duvivier, Copacabana</t>
+  </si>
+  <si>
+    <t>20 m²</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>75 m²</t>
+  </si>
+  <si>
     <t>Avenida Nossa Senhora de Copacabana, Copacabana</t>
   </si>
   <si>
-    <t>Ver crianças brincando na ru...</t>
-  </si>
-  <si>
-    <t>Rua Tonelero, Copacabana</t>
-  </si>
-  <si>
-    <t>Avenida Atlântica, Copacabana</t>
-  </si>
-  <si>
-    <t>CRECI-35589/RJ</t>
-  </si>
-  <si>
-    <t>Rua Hilário de Gouveia, Copacabana</t>
-  </si>
-  <si>
-    <t>Rua Ubaldino do Amaral, Centro</t>
-  </si>
-  <si>
-    <t>Rua Siqueira Campos, Copacabana</t>
-  </si>
-  <si>
-    <t>49 m²</t>
+    <t>98 m²</t>
+  </si>
+  <si>
+    <t>103 m²</t>
+  </si>
+  <si>
+    <t>27 m²</t>
   </si>
   <si>
     <t>65 m²</t>
   </si>
   <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>29 m²</t>
-  </si>
-  <si>
-    <t>Rua Raul Pompéia, Copacabana</t>
-  </si>
-  <si>
-    <t>80 m²</t>
-  </si>
-  <si>
-    <t>59 m²</t>
-  </si>
-  <si>
-    <t>Rua Henrique Oswald, Copacabana</t>
-  </si>
-  <si>
-    <t>3 quartos (sendo 1 suíte com closet) mais 1 escritório</t>
-  </si>
-  <si>
-    <t>Rua Cinco de Julho, Copacabana</t>
-  </si>
-  <si>
-    <t>51 m²</t>
-  </si>
-  <si>
-    <t>187 m²</t>
-  </si>
-  <si>
-    <t>- Apenas 10 unidades (2 unidade...</t>
-  </si>
-  <si>
-    <t>36 - 54 m²</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>37 m²</t>
+  </si>
+  <si>
+    <t>111 m²</t>
   </si>
   <si>
     <t>45 m²</t>
   </si>
   <si>
-    <t>Rua Bolivar, Copacabana</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>188 m²</t>
-  </si>
-  <si>
-    <t>110 m²</t>
-  </si>
-  <si>
-    <t>120 m²</t>
-  </si>
-  <si>
-    <t>3 banheiros completos</t>
-  </si>
-  <si>
-    <t>100 m²</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>35 m²</t>
-  </si>
-  <si>
-    <t>95 m²</t>
-  </si>
-  <si>
-    <t>241 m²</t>
-  </si>
-  <si>
-    <t>117 m²</t>
-  </si>
-  <si>
-    <t>Dependências de empregada</t>
-  </si>
-  <si>
-    <t>55 m²</t>
+    <t>150 m²</t>
+  </si>
+  <si>
+    <t>39 m²</t>
+  </si>
+  <si>
+    <t>233 m²</t>
+  </si>
+  <si>
+    <t>1 Banheiro</t>
+  </si>
+  <si>
+    <t>33 m²</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>230 m2</t>
-  </si>
-  <si>
-    <t>119 m²</t>
-  </si>
-  <si>
-    <t>1 vaga de garagem</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1...</t>
-  </si>
-  <si>
-    <t>Rua Bulhões de Carvalho, Copacabana</t>
-  </si>
-  <si>
-    <t>230 m²</t>
+    <t>1 Suíte</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1 Vaga</t>
+  </si>
+  <si>
+    <t>Av. Nossa Sra. de Copacabana, 90m, sala em</t>
+  </si>
+  <si>
+    <t>89 m²</t>
   </si>
 </sst>
 </file>
@@ -722,13 +719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -783,816 +780,766 @@
       <c r="S1" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
-      </c>
-      <c r="L12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="J14" t="s">
-        <v>95</v>
-      </c>
-      <c r="K14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="S14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T14" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
         <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+      <c r="G18" t="s">
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>107</v>
-      </c>
-      <c r="K18" t="s">
-        <v>110</v>
-      </c>
-      <c r="L18" t="s">
-        <v>112</v>
-      </c>
-      <c r="M18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" t="s">
-        <v>115</v>
-      </c>
-      <c r="P18" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R18" t="s">
-        <v>95</v>
-      </c>
-      <c r="S18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" t="s">
         <v>101</v>
       </c>
-      <c r="J19" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" t="s">
-        <v>95</v>
-      </c>
-      <c r="L19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" t="s">
-        <v>91</v>
-      </c>
-      <c r="I24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" t="s">
-        <v>96</v>
-      </c>
-      <c r="M24" t="s">
-        <v>96</v>
-      </c>
-      <c r="N24" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
